--- a/biology/Botanique/Mesomycetozoa/Mesomycetozoa.xlsx
+++ b/biology/Botanique/Mesomycetozoa/Mesomycetozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichthyosporea
 Les Mésomycétozoaires (Mesomycetozoa s.s.) ou Ichtyosporés (Ichthyosporea) forment un petit groupe d’organismes unicellulaires opisthocontes, intermédiaires entre les Champignons et les Animaux. Il s'agit principalement de parasites des animaux et notamment des poissons.
-Cette classe possède deux ordres nommés Dermocystida et Ichthyophonida[2]. Sur la base des analyses phylogénétiques, le germe Rhinosporidium seeberi a été retenu dans la taxonomie dans cette classe dans l’ordre Dermocystida et dans la famille Rhinosporideaceae[2].
+Cette classe possède deux ordres nommés Dermocystida et Ichthyophonida. Sur la base des analyses phylogénétiques, le germe Rhinosporidium seeberi a été retenu dans la taxonomie dans cette classe dans l’ordre Dermocystida et dans la famille Rhinosporideaceae.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Signification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ne sont pas particulièrement distinctifs sur le plan morphologique, apparaissant dans les tissus de l'hôte sous la forme de sphères ou d'ovales élargis contenant des spores, et la plupart ont été classés à l'origine dans divers groupes comme champignons, protozoaires ou algues incolores. Cependant, ils forment un groupe cohérent sur les arbres moléculaires, étroitement lié à la fois aux animaux et aux champignons, ce qui présente un intérêt pour les biologistes qui étudient leurs origines. Dans une étude de 2008, ils apparaissent de manière robuste comme le groupe frère du clade Filozoa, qui comprend les animaux[3],[4].
-Huldtgren et al., à la suite de la tomographie aux rayons X de microfossiles de la formation édiacarienne de Doushantuo, les a interprétés comme des capsules de spores de mésomycétozoaires[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ne sont pas particulièrement distinctifs sur le plan morphologique, apparaissant dans les tissus de l'hôte sous la forme de sphères ou d'ovales élargis contenant des spores, et la plupart ont été classés à l'origine dans divers groupes comme champignons, protozoaires ou algues incolores. Cependant, ils forment un groupe cohérent sur les arbres moléculaires, étroitement lié à la fois aux animaux et aux champignons, ce qui présente un intérêt pour les biologistes qui étudient leurs origines. Dans une étude de 2008, ils apparaissent de manière robuste comme le groupe frère du clade Filozoa, qui comprend les animaux,.
+Huldtgren et al., à la suite de la tomographie aux rayons X de microfossiles de la formation édiacarienne de Doushantuo, les a interprétés comme des capsules de spores de mésomycétozoaires.
 </t>
         </is>
       </c>
@@ -545,17 +559,19 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot DRIP est un acronyme, dont chaque lettre est l'initiale du genre des premiers protozoaires identifiés comme membres du groupe (Dermocystidium Rosette agent Ichthyophonus Psorospermium)[6], Cavalier-Smith plus tard, les ont considérés comme la classe Ichthyosporea (du grec ἰχθῦς / ichthýs, poisson), puisqu'ils étaient tous des parasites de poissons.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot DRIP est un acronyme, dont chaque lettre est l'initiale du genre des premiers protozoaires identifiés comme membres du groupe (Dermocystidium Rosette agent Ichthyophonus Psorospermium), Cavalier-Smith plus tard, les ont considérés comme la classe Ichthyosporea (du grec ἰχθῦς / ichthýs, poisson), puisqu'ils étaient tous des parasites de poissons.
 ordre Dermocystida
 "D": Dermocystidium. Une espèce, Rhinosporidium seeberi, infecte les oiseaux et les mammifères, y compris l'homme.
 "R": l'"agent de rosette", désormais connu sous le nom de Sphaerothecum destruens
 ordre Ichthyophonida
 "I": Ichthyophonus
 "P": Psorospermium
-Comme d'autres membres ont été ajoutés (par exemple les anciens ordres fongiques Eccrinales et Amoebidiales), Mendoza et al. ont suggéré de changer le nom en Mesomycetozoea, qui fait référence à leur position évolutive. Sur l'arbre Eukaryota, dans le clade Opisthokont, Mesomycetozoea se trouve en position médiane ("Meso-") entre champignons ("-myceto-") et animaux ("-zoea")[7].
-Il faut noter que le nom Mesomycetozoa (sans le troisième e de -zoea) est également utilisé pour se référer à ce groupe, mais Mendoza et al. l'utilise comme nom alternatif pour les Opisthokonts basaux[8].
+Comme d'autres membres ont été ajoutés (par exemple les anciens ordres fongiques Eccrinales et Amoebidiales), Mendoza et al. ont suggéré de changer le nom en Mesomycetozoea, qui fait référence à leur position évolutive. Sur l'arbre Eukaryota, dans le clade Opisthokont, Mesomycetozoea se trouve en position médiane ("Meso-") entre champignons ("-myceto-") et animaux ("-zoea").
+Il faut noter que le nom Mesomycetozoa (sans le troisième e de -zoea) est également utilisé pour se référer à ce groupe, mais Mendoza et al. l'utilise comme nom alternatif pour les Opisthokonts basaux.
 </t>
         </is>
       </c>
@@ -585,6 +601,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,9 +628,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Classe Ichthyosporea Cavalier-Smith 1998[11],[12]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Classe Ichthyosporea Cavalier-Smith 1998,
 Ordre Dermocystida Cavalier-Smith 1998
 Famille Rhinosporidiaceae Mendoza et al. 2001
 Genre Amphibiocystidium Pascolini et al. 2003
